--- a/Resultados_Emocoes.xlsx
+++ b/Resultados_Emocoes.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -689,9 +689,42 @@
         <v>Tristeza, Alegria</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Eduardo Aguiar</v>
+      </c>
+      <c r="B27" s="1">
+        <v>38536.87467592592</v>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>teste</v>
+      </c>
+      <c r="B28" s="1">
+        <v>38536.87467592592</v>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>teste</v>
+      </c>
+      <c r="B29" s="1">
+        <v>38536.87467592592</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Tristeza, excitação</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C26"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C29"/>
   </ignoredErrors>
 </worksheet>
 </file>